--- a/TPO.xlsx
+++ b/TPO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jijiwaiwai/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jijiwaiwai/Desktop/Recording/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -383,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,7 +489,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.2">
       <c r="A17" s="2">

--- a/TPO.xlsx
+++ b/TPO.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,7 +495,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.2">
       <c r="A18" s="2">

--- a/TPO.xlsx
+++ b/TPO.xlsx
@@ -1,58 +1,205 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jijiwaiwai/Desktop/Recording/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView windowWidth="22880" windowHeight="10500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+  <si>
+    <t>TPO READING</t>
+  </si>
   <si>
     <t>DONE</t>
-  </si>
-  <si>
-    <t>TPO READING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -65,8 +212,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -89,9 +422,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -105,10 +680,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -161,7 +783,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,7 +818,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,242 +992,238 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8308823529412" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" ht="24.4" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" ht="24.4" spans="1:2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="3" ht="24.4" spans="1:2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="4" ht="24.4" spans="1:2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="5" ht="24.4" spans="1:2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="6" ht="24.4" spans="1:2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="7" ht="24.4" spans="1:2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="8" ht="24.4" spans="1:2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="9" ht="24.4" spans="1:2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="10" ht="24.4" spans="1:2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="11" ht="24.4" spans="1:2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="12" ht="24.4" spans="1:2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="13" ht="24.4" spans="1:2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="14" ht="24.4" spans="1:2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="15" ht="24.4" spans="1:2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" ht="24.4" spans="1:2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="17" ht="24.4" spans="1:2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="18" ht="24.4" spans="1:2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" ht="24.4" spans="1:2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="20" ht="24.4" spans="1:2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="21" ht="24.4" spans="1:2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="22" ht="24.4" spans="1:2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="23" ht="24.4" spans="1:2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="24" ht="24.4" spans="1:2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="25" ht="24.4" spans="1:2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="26" ht="24.4" spans="1:2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="27" ht="24.4" spans="1:2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="28" ht="24.4" spans="1:2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="29" ht="24.4" spans="1:2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="30" ht="24.4" spans="1:2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="31" ht="24.4" spans="1:2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="32" ht="24.4" spans="1:2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="33" ht="24.4" spans="1:2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="34" ht="24.4" spans="1:2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="35" ht="24.4" spans="1:2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/TPO.xlsx
+++ b/TPO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1720" windowWidth="22880" windowHeight="10500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>TPO READING</t>
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>TPO LISTENING</t>
   </si>
 </sst>
 </file>
@@ -93,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -103,6 +106,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -376,229 +388,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C8" s="5">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C9" s="5">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C10" s="5">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C12" s="5">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C13" s="5">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C14" s="5">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C15" s="5">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C16" s="5">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C17" s="5">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C18" s="5">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C19" s="5">
+        <v>18</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C20" s="5">
+        <v>19</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C21" s="5">
+        <v>20</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C22" s="5">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C23" s="5">
+        <v>22</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C24" s="5">
+        <v>23</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C25" s="5">
+        <v>24</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C26" s="5">
+        <v>25</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C27" s="5">
+        <v>26</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C28" s="5">
+        <v>27</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C29" s="5">
+        <v>28</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C30" s="5">
+        <v>29</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C31" s="5">
+        <v>30</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C32" s="5">
+        <v>31</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C33" s="5">
+        <v>32</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="C34" s="5">
+        <v>33</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2"/>
+      <c r="C35" s="5">
+        <v>34</v>
+      </c>
+      <c r="D35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TPO.xlsx
+++ b/TPO.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26230"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jijiwaiwai/Desktop/Recording/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="11400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
   <si>
     <t>TPO READING</t>
   </si>
@@ -38,13 +28,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -54,8 +50,159 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,8 +215,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -92,35 +425,324 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -382,27 +1004,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.8308823529412" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.3308823529412" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.1617647058824" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -416,57 +1038,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -476,7 +1098,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -486,7 +1108,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -496,7 +1118,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -506,7 +1128,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -516,7 +1138,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -526,7 +1148,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -536,7 +1158,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -546,7 +1168,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -556,7 +1178,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -566,7 +1188,7 @@
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -576,7 +1198,7 @@
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -586,7 +1208,7 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -596,7 +1218,7 @@
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -606,157 +1228,158 @@
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="5">
         <v>20</v>
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="22" spans="1:4">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="23" spans="1:4">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="5">
         <v>22</v>
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="24" spans="1:4">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="5">
         <v>23</v>
       </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+    <row r="25" spans="1:4">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="5">
         <v>24</v>
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+    <row r="26" spans="1:4">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="5">
         <v>25</v>
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+    <row r="27" spans="1:4">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="5">
         <v>26</v>
       </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+    <row r="28" spans="1:4">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="5">
         <v>27</v>
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+    <row r="29" spans="1:4">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="5">
         <v>28</v>
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+    <row r="30" spans="1:4">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="5">
         <v>29</v>
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+    <row r="31" spans="1:4">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="5">
         <v>30</v>
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+    <row r="32" spans="1:4">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="5">
         <v>31</v>
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+    <row r="33" spans="1:4">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="5">
         <v>32</v>
       </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+    <row r="34" spans="1:4">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="5">
         <v>33</v>
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+    <row r="35" spans="1:4">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="5">
         <v>34</v>
       </c>
       <c r="D35" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/TPO.xlsx
+++ b/TPO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11400" tabRatio="500"/>
+    <workbookView windowWidth="25200" windowHeight="11400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -61,6 +61,81 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -69,52 +144,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,74 +188,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,13 +217,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,169 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,21 +426,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -460,7 +445,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,6 +465,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -495,7 +510,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,163 +523,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1012,8 +1012,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.4" outlineLevelCol="3"/>
@@ -1239,20 +1239,20 @@
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="5">
         <v>22</v>
       </c>

--- a/TPO.xlsx
+++ b/TPO.xlsx
@@ -30,10 +30,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -59,9 +59,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,6 +167,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -83,120 +188,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +217,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -229,24 +235,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -259,55 +355,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,7 +373,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,73 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +426,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -445,6 +460,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -480,41 +515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -526,145 +526,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B23"/>
+      <selection activeCell="B24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.4" outlineLevelCol="3"/>
@@ -1259,10 +1259,10 @@
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="6">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="5">
         <v>23</v>
       </c>

--- a/TPO.xlsx
+++ b/TPO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11400" tabRatio="500"/>
+    <workbookView windowWidth="25720" windowHeight="11400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -51,9 +51,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -67,8 +82,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,24 +98,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,6 +112,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -114,14 +143,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,65 +201,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -217,19 +217,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,13 +337,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,31 +367,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,109 +385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,21 +422,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,26 +450,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -496,6 +461,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,151 +512,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,8 +1012,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B24" sqref="A24:B24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.4" outlineLevelCol="3"/>
@@ -1269,10 +1269,10 @@
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="5">
         <v>24</v>
       </c>
@@ -1289,10 +1289,10 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="6">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="5">
         <v>26</v>
       </c>

--- a/TPO.xlsx
+++ b/TPO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25720" windowHeight="11400" tabRatio="500"/>
+    <workbookView windowWidth="17760" windowHeight="11400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -51,33 +51,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,18 +141,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,96 +201,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -217,37 +217,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,145 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,30 +426,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -470,6 +446,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,15 +491,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -523,151 +499,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,8 +1012,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.4" outlineLevelCol="3"/>
@@ -1279,10 +1279,10 @@
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="6">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="5">
         <v>25</v>
       </c>

--- a/TPO.xlsx
+++ b/TPO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17760" windowHeight="11400" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="10800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -51,14 +51,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,34 +58,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -102,32 +66,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,6 +82,110 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -151,54 +196,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -217,13 +217,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,37 +337,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,127 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +426,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -437,24 +461,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,6 +480,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -488,186 +523,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,8 +1012,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.4" outlineLevelCol="3"/>
@@ -1299,20 +1299,20 @@
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="6">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="5">
         <v>27</v>
       </c>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="6">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="3"/>
       <c r="C29" s="5">
         <v>28</v>
       </c>

--- a/TPO.xlsx
+++ b/TPO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="10800" tabRatio="500"/>
+    <workbookView windowWidth="23500" windowHeight="11400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -58,17 +81,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,21 +96,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,30 +167,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,17 +187,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,29 +197,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,31 +223,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,37 +349,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,103 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,6 +465,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -499,175 +523,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,8 +1012,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.4" outlineLevelCol="3"/>

--- a/TPO.xlsx
+++ b/TPO.xlsx
@@ -51,38 +51,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,107 +187,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,187 +217,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,15 +441,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -469,7 +460,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,17 +480,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,151 +508,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:B30"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.4" outlineLevelCol="3"/>
@@ -1319,10 +1319,10 @@
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="6">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="5">
         <v>29</v>
       </c>

--- a/TPO.xlsx
+++ b/TPO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23500" windowHeight="11400" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="11400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -51,6 +51,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -58,13 +97,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,24 +105,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,100 +173,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +223,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -235,7 +277,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,157 +319,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,6 +422,56 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,42 +510,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,166 +523,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A31" sqref="A31:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.4" outlineLevelCol="3"/>
@@ -1329,10 +1329,10 @@
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="5">
         <v>30</v>
       </c>

--- a/TPO.xlsx
+++ b/TPO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11400" tabRatio="500"/>
+    <workbookView windowWidth="24800" windowHeight="11400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -51,6 +51,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -60,17 +82,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -82,48 +142,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,66 +182,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,19 +217,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,163 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,56 +422,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,7 +460,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,151 +508,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,8 +1012,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:B31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.4" outlineLevelCol="3"/>
@@ -1339,20 +1339,20 @@
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="6">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="5">
         <v>31</v>
       </c>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="5">
         <v>32</v>
       </c>

--- a/TPO.xlsx
+++ b/TPO.xlsx
@@ -30,8 +30,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -51,54 +51,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,14 +107,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,9 +128,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,14 +137,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -159,7 +167,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,36 +197,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,61 +217,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,25 +313,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,91 +367,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,6 +422,24 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,20 +474,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,183 +517,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.4" outlineLevelCol="3"/>
@@ -1359,10 +1359,10 @@
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="6">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="3"/>
       <c r="C34" s="5">
         <v>33</v>
       </c>

--- a/TPO.xlsx
+++ b/TPO.xlsx
@@ -30,9 +30,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -51,6 +51,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -60,17 +90,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -82,6 +156,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -92,111 +173,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,187 +217,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,24 +426,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -459,6 +441,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -470,32 +470,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,161 +491,187 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,9 +687,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1013,7 +1010,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="B35" sqref="A35:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.4" outlineLevelCol="3"/>
@@ -1369,10 +1366,10 @@
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="6">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="5">
         <v>34</v>
       </c>
